--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\interface_auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D61CB6-A30A-4971-873B-D55173C6AEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47BD8CA-093F-4AC4-8490-070FE7C3FDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="810" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="16" r:id="rId1"/>
@@ -198,11 +198,6 @@
   <si>
     <t>#1、request包含method、url、headers、params不可缺，不可改
 #2、如params没数据，传{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1、比如取消收藏案源信息接口，通过sql查询相关caseid，传到接口的请求参数中
-#2、key为请求参数的值(传caseId保持一致)，value为sql语句</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -290,6 +285,12 @@
     <t>{
 	"$.data": "delete from tablewhere id="
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1、比如取消收藏案源信息接口，通过sql查询相关caseid，传到接口的请求参数中
+#2、key为请求参数的值(传caseId保持一致)，value为sql语句
+#3、如果是查sql的数量，key取名为caseId_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D00D344-FF06-4406-AD62-B1FCBAAE2444}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -672,6 +673,8 @@
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="17" max="17" width="11.375" customWidth="1"/>
     <col min="23" max="23" width="23.5" customWidth="1"/>
+    <col min="25" max="25" width="22.375" customWidth="1"/>
+    <col min="26" max="26" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -786,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -825,53 +828,53 @@
         <v>29</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="Z3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="W4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\interface_auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47BD8CA-093F-4AC4-8490-070FE7C3FDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FEE1E2-C260-4FA6-A4AF-6B368512C90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="810" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="555" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="16" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>post</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>前置条件(查询数据库返回到请求参数)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>后置条件(要执行的sql)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -243,12 +239,6 @@
   <si>
     <t>单条语句，查询数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "caseId" : 1
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>select * from table where case_id=1;</t>
@@ -277,20 +267,87 @@
   </si>
   <si>
     <t>{
-	"caseId" : "select case_id from table where case_id=1;"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 	"$.data": "delete from tablewhere id="
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#1、比如取消收藏案源信息接口，通过sql查询相关caseid，传到接口的请求参数中
-#2、key为请求参数的值(传caseId保持一致)，value为sql语句
-#3、如果是查sql的数量，key取名为caseId_num</t>
+    <t>是否运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是
+否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "caseId" : $cache{v_code}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+	{
+		"case_id": "self",
+		"dependent_data": [
+			{
+				"dependent_type": "sqlData",
+				"dependent_sql": "select id from case_collect_info where user_id=393014 and case_id=19059;",
+				"jsonpath": null,
+				"set_cache": "login_02_v_code",
+				"replace_key": {
+					"title": "自动化测试_删除",
+                                                                                "name": "张三"
+				}
+			}
+		]
+	},
+	{
+		"case_id": "caseCollectConcel",
+		"dependent_data": [
+			{
+				"dependent_type": "response",
+				"dependent_sql": null,
+				"jsonpath": "$.code",
+				"set_cache": "v_code",
+				"replace_key": null
+			},
+			{
+				"dependent_type": "response",
+				"dependent_sql": null,
+				"jsonpath": "$.message",
+				"set_cache": "v_message",
+				"replace_key": null
+			}
+		]
+	}
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_id  当为self，只执行sql；为其他，则执行指定的用例（例：caseCollectConcel，执行caseCollectConcel用例）
+"dependent_type":  填sqlData（从数据库获取数据） 或response（从执行用例的响应结果获取数据）
+"dependent_sql": "select id from table where user_id=14 and case_id=9;",    #单条sql语句  不用时填null
+"jsonpath": null,    从响应结果获取数据时用到，使用方式：$.code ，不用时填null
+"set_cache": "v_code",    #设置缓存,使用方式见“请求参数”
+"replace_key": {"title": "自动化测试_删除", "name": "张三"}， #替换依赖接口用例的请求参数，json格式，不用时填null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$cache{v_code}    获取缓存，key为v_code的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D00D344-FF06-4406-AD62-B1FCBAAE2444}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O3" activeCellId="1" sqref="V3 O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -667,17 +724,16 @@
     <col min="5" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="6" width="27.5" customWidth="1"/>
     <col min="7" max="7" width="25.375" customWidth="1"/>
-    <col min="10" max="10" width="66.25" customWidth="1"/>
-    <col min="11" max="11" width="42" customWidth="1"/>
-    <col min="14" max="14" width="14.375" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="17" max="17" width="11.375" customWidth="1"/>
-    <col min="23" max="23" width="23.5" customWidth="1"/>
-    <col min="25" max="25" width="22.375" customWidth="1"/>
-    <col min="26" max="26" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="66.25" customWidth="1"/>
+    <col min="12" max="12" width="42" customWidth="1"/>
+    <col min="15" max="15" width="14.375" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="18" max="18" width="11.375" customWidth="1"/>
+    <col min="25" max="25" width="23.5" customWidth="1"/>
+    <col min="27" max="27" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -703,64 +759,67 @@
         <v>20</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="5" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -786,108 +845,119 @@
         <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="2">
+        <v>200</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="2">
-        <v>200</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>57</v>
+      <c r="I3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Y4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="W4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="Y4:AB4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{F688C028-1E62-4A01-8A5B-9D9F192BBF18}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{F688C028-1E62-4A01-8A5B-9D9F192BBF18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
